--- a/reduction/degree_8_5_3_0_.xlsx
+++ b/reduction/degree_8_5_3_0_.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,56 +722,56 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
-      <c r="Q15">
+    <row r="16" spans="1:33">
+      <c r="Q16">
         <v>3</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <v>4</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>5</v>
       </c>
-      <c r="U15">
+      <c r="U16">
         <v>5</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>5</v>
       </c>
-      <c r="W15">
+      <c r="W16">
         <v>5</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <v>5</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>6</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>6</v>
       </c>
-      <c r="AA15">
+      <c r="AA16">
         <v>7</v>
       </c>
-      <c r="AB15">
+      <c r="AB16">
         <v>7</v>
       </c>
-      <c r="AC15">
+      <c r="AC16">
         <v>4</v>
       </c>
-      <c r="AD15">
+      <c r="AD16">
         <v>5</v>
       </c>
-      <c r="AE15">
+      <c r="AE16">
         <v>3</v>
       </c>
-      <c r="AF15">
+      <c r="AF16">
         <v>4</v>
       </c>
-      <c r="AG15">
+      <c r="AG16">
         <v>4</v>
       </c>
     </row>
